--- a/models/Multi_dimentional_data_covar/06_Zuf_Reg_1.xlsx
+++ b/models/Multi_dimentional_data_covar/06_Zuf_Reg_1.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-300" yWindow="390" windowWidth="15480" windowHeight="11010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="92512"/>
+  <calcPr calcId="92512" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Regierung</t>
   </si>
@@ -35,12 +40,15 @@
   <si>
     <t xml:space="preserve">Zufriedenheit mit Regierung und Koalitionspartnern </t>
   </si>
+  <si>
+    <t>Datum</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -79,6 +87,18 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -98,14 +118,14 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -113,29 +133,31 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -162,8 +184,10 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -465,16 +489,16 @@
   <dimension ref="B1:G76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5:G5"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="B7:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" customWidth="1"/>
+    <col min="1" max="1" width="1.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:7">
       <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
@@ -484,7 +508,7 @@
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:7">
       <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
@@ -494,7 +518,7 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7">
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -502,8 +526,8 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7" ht="12" customHeight="1"/>
+    <row r="5" spans="2:7" ht="20" customHeight="1">
       <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
@@ -513,18 +537,26 @@
       <c r="F5" s="8"/>
       <c r="G5" s="9"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C7" s="1" t="s">
+    <row r="7" spans="2:7">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:7">
       <c r="B9" s="4">
         <v>41656</v>
       </c>
@@ -538,7 +570,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:7">
       <c r="B10" s="4">
         <v>41670</v>
       </c>
@@ -552,7 +584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:7">
       <c r="B11" s="4">
         <v>41691</v>
       </c>
@@ -566,7 +598,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:7">
       <c r="B12" s="4">
         <v>41712</v>
       </c>
@@ -580,7 +612,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:7">
       <c r="B13" s="4">
         <v>41726</v>
       </c>
@@ -594,7 +626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:7">
       <c r="B14" s="4">
         <v>41740</v>
       </c>
@@ -608,7 +640,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:7">
       <c r="B15" s="4">
         <v>41768</v>
       </c>
@@ -622,7 +654,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:7">
       <c r="B16" s="4">
         <v>41795</v>
       </c>
@@ -636,7 +668,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5">
       <c r="B17" s="4">
         <v>41817</v>
       </c>
@@ -650,7 +682,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5">
       <c r="B18" s="4">
         <v>41838</v>
       </c>
@@ -664,7 +696,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5">
       <c r="B19" s="4">
         <v>41873</v>
       </c>
@@ -678,7 +710,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5">
       <c r="B20" s="4">
         <v>41887</v>
       </c>
@@ -692,7 +724,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5">
       <c r="B21" s="4">
         <v>41908</v>
       </c>
@@ -706,7 +738,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5">
       <c r="B22" s="4">
         <v>41922</v>
       </c>
@@ -720,7 +752,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5">
       <c r="B23" s="4">
         <v>41936</v>
       </c>
@@ -734,7 +766,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5">
       <c r="B24" s="4">
         <v>41957</v>
       </c>
@@ -748,7 +780,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:5">
       <c r="B25" s="4">
         <v>41971</v>
       </c>
@@ -762,7 +794,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:5">
       <c r="B26" s="4">
         <v>41985</v>
       </c>
@@ -776,7 +808,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:5">
       <c r="B27" s="4">
         <v>42020</v>
       </c>
@@ -790,7 +822,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:5">
       <c r="B28" s="4">
         <v>42034</v>
       </c>
@@ -804,7 +836,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:5">
       <c r="B29" s="4">
         <v>42062</v>
       </c>
@@ -818,7 +850,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:5">
       <c r="B30" s="4">
         <v>42076</v>
       </c>
@@ -832,7 +864,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:5">
       <c r="B31" s="4">
         <v>42090</v>
       </c>
@@ -846,7 +878,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:5">
       <c r="B32" s="4">
         <v>42111</v>
       </c>
@@ -860,7 +892,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:5">
       <c r="B33" s="4">
         <v>41781</v>
       </c>
@@ -874,7 +906,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:5">
       <c r="B34" s="4">
         <v>42167</v>
       </c>
@@ -888,7 +920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:5">
       <c r="B35" s="4">
         <v>42188</v>
       </c>
@@ -902,7 +934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:5">
       <c r="B36" s="4">
         <v>42209</v>
       </c>
@@ -916,7 +948,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:5">
       <c r="B37" s="2">
         <v>42237</v>
       </c>
@@ -930,7 +962,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:5">
       <c r="B38" s="4">
         <v>42258</v>
       </c>
@@ -944,7 +976,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:5">
       <c r="B39" s="4">
         <v>42272</v>
       </c>
@@ -958,7 +990,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:5">
       <c r="B40" s="4">
         <v>42286</v>
       </c>
@@ -972,7 +1004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:5">
       <c r="B41" s="4">
         <v>42300</v>
       </c>
@@ -986,7 +1018,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:5">
       <c r="B42" s="4">
         <v>42321</v>
       </c>
@@ -1000,7 +1032,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:5">
       <c r="B43" s="4">
         <v>42335</v>
       </c>
@@ -1014,7 +1046,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:5">
       <c r="B44" s="4">
         <v>42349</v>
       </c>
@@ -1028,7 +1060,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:5">
       <c r="B45" s="4">
         <v>42384</v>
       </c>
@@ -1042,7 +1074,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:5">
       <c r="B46" s="4">
         <v>42398</v>
       </c>
@@ -1056,7 +1088,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:5">
       <c r="B47" s="4">
         <v>42419</v>
       </c>
@@ -1070,7 +1102,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:5">
       <c r="B48" s="4">
         <v>42447</v>
       </c>
@@ -1084,7 +1116,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:5">
       <c r="B49" s="4">
         <v>42468</v>
       </c>
@@ -1098,7 +1130,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:5">
       <c r="B50" s="4">
         <v>42482</v>
       </c>
@@ -1112,7 +1144,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:5">
       <c r="B51" s="4">
         <v>42503</v>
       </c>
@@ -1126,7 +1158,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:5">
       <c r="B52" s="4">
         <v>42524</v>
       </c>
@@ -1140,7 +1172,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:5">
       <c r="B53" s="4">
         <v>42545</v>
       </c>
@@ -1154,7 +1186,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:5">
       <c r="B54" s="4">
         <v>42559</v>
       </c>
@@ -1168,7 +1200,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:5">
       <c r="B55" s="4">
         <v>42573</v>
       </c>
@@ -1182,7 +1214,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="56" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:5" s="3" customFormat="1">
       <c r="B56" s="4">
         <v>42594</v>
       </c>
@@ -1196,7 +1228,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="57" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:5" s="3" customFormat="1">
       <c r="B57" s="4">
         <v>42636</v>
       </c>
@@ -1210,7 +1242,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="58" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:5" s="3" customFormat="1">
       <c r="B58" s="4">
         <v>42657</v>
       </c>
@@ -1224,7 +1256,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="59" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:5" s="3" customFormat="1">
       <c r="B59" s="4">
         <v>42671</v>
       </c>
@@ -1238,7 +1270,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:5">
       <c r="B60" s="4">
         <v>42685</v>
       </c>
@@ -1252,7 +1284,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:5">
       <c r="B61" s="4">
         <v>42699</v>
       </c>
@@ -1266,7 +1298,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:5">
       <c r="B62" s="4">
         <v>42713</v>
       </c>
@@ -1280,7 +1312,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:5">
       <c r="B63" s="4">
         <v>42748</v>
       </c>
@@ -1294,7 +1326,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:5">
       <c r="B64" s="4">
         <v>42762</v>
       </c>
@@ -1308,7 +1340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:5">
       <c r="B65" s="4">
         <v>42783</v>
       </c>
@@ -1322,7 +1354,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:5">
       <c r="B66" s="4">
         <v>42804</v>
       </c>
@@ -1336,7 +1368,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:5">
       <c r="B67" s="4">
         <v>42832</v>
       </c>
@@ -1350,7 +1382,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:5">
       <c r="B68" s="4">
         <v>42853</v>
       </c>
@@ -1364,49 +1396,49 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:5">
       <c r="B69" s="4"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:5">
       <c r="B70" s="4"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:5">
       <c r="B71" s="4"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:5">
       <c r="B72" s="4"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:5">
       <c r="B73" s="4"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:5">
       <c r="B74" s="4"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:5">
       <c r="B75" s="4"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:5">
       <c r="B76" s="4"/>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
@@ -1420,8 +1452,13 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1431,11 +1468,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1445,10 +1487,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>